--- a/ITProjectManagement/BA/0_0_1_StudentAppMVP/ProductBacklog.xlsx
+++ b/ITProjectManagement/BA/0_0_1_StudentAppMVP/ProductBacklog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ITProjectManagement\BA\SpecsWireframes\MVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ITProjectManagement\BA\0_0_1_StudentAppMVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -9438,6 +9438,9 @@
     <xf numFmtId="16" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="13" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9449,9 +9452,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="13" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9687,31 +9687,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -9781,7 +9781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
@@ -9876,7 +9876,7 @@
       <c r="L2" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="51">
+      <c r="M2" s="46">
         <v>44664</v>
       </c>
     </row>
@@ -9912,7 +9912,7 @@
       <c r="L3" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="46">
         <v>44664</v>
       </c>
     </row>
@@ -9948,7 +9948,7 @@
       <c r="L4" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="46">
         <v>44664</v>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
       <c r="L5" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="46">
         <v>44664</v>
       </c>
     </row>
@@ -10020,7 +10020,7 @@
       <c r="L6" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="46">
         <v>44664</v>
       </c>
     </row>
@@ -11098,7 +11098,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="37" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>26</v>
       </c>
@@ -11344,7 +11344,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="38" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -13211,9 +13211,9 @@
   </sheetPr>
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
